--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R3537e4601bab4b05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R5c2457e2419e45d8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R5c2457e2419e45d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R02250d553b044d89"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R02250d553b044d89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc7fc873e780d4f59"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc7fc873e780d4f59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R7b0017084ba34b30"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,18 +28,18 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -52,7 +52,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R7b0017084ba34b30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R24e1e1999e25414f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R24e1e1999e25414f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R42f4c507c8784b77"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R42f4c507c8784b77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re1e92c6fc79245c3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re1e92c6fc79245c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc0695a9b7e364e11"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc0695a9b7e364e11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R065ecc59466449ed"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R065ecc59466449ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfc4d291aff874861"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfc4d291aff874861"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R654bc96e5d1b49f6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R654bc96e5d1b49f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rbe94964aad6942ba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rbe94964aad6942ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R3826c159e8654e60"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R3826c159e8654e60"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R630e809c447342c4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R630e809c447342c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc438d8b0080842e8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc438d8b0080842e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rdab853b120734bc9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rdab853b120734bc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R35fe813cf14544ed"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R35fe813cf14544ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R92e881da934a4189"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R92e881da934a4189"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc53be651d34f4ea4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rc53be651d34f4ea4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R83b9f5d376554016"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R83b9f5d376554016"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R37ba5893b48840d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R37ba5893b48840d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd500d37472034f7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd500d37472034f7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re094d1b0f7a84c1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re094d1b0f7a84c1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R022fc095a50d451a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R022fc095a50d451a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Ra0ccd683ea204465"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Ra0ccd683ea204465"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R21b9de1fa1534f13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R21b9de1fa1534f13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfcdeebba23f741ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfcdeebba23f741ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R189d2e5a4e5e4a30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R189d2e5a4e5e4a30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re495d2cf608e457a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re495d2cf608e457a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R2b0fe69ec2254620"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R2b0fe69ec2254620"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R508515940dab48aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R508515940dab48aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R259f3042e435404e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R259f3042e435404e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R9ef9821efbcb41d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R9ef9821efbcb41d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd633b5096e434fdd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd633b5096e434fdd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rf1d3c1a6acf14219"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rf1d3c1a6acf14219"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R1f5923e195db410d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R1f5923e195db410d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rba4066c5aefc41e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rba4066c5aefc41e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd9c803688a4e4533"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd9c803688a4e4533"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfe8cb751723e4cfb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rfe8cb751723e4cfb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re526f4ed8e0e4f52"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re526f4ed8e0e4f52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R4417f3eecaf34b72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R4417f3eecaf34b72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rda570c3c54fe43df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rda570c3c54fe43df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb4353f18e3e14d47"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb4353f18e3e14d47"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Ra6e60282e3b84bf8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/24_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Ra6e60282e3b84bf8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rea6e688b9c6942a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
